--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H2">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I2">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J2">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N2">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O2">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P2">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q2">
-        <v>0.1860534591444444</v>
+        <v>0.1943681227217778</v>
       </c>
       <c r="R2">
-        <v>1.6744811323</v>
+        <v>1.749313104496</v>
       </c>
       <c r="S2">
-        <v>0.0001282687273029039</v>
+        <v>4.524432842104849E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001597951954769156</v>
+        <v>6.13797524106588E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H3">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I3">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J3">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.586944</v>
       </c>
       <c r="O3">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P3">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q3">
-        <v>0.06414902524444444</v>
+        <v>0.05755490498844444</v>
       </c>
       <c r="R3">
-        <v>0.5773412271999999</v>
+        <v>0.5179941448959999</v>
       </c>
       <c r="S3">
-        <v>4.422553530401503E-05</v>
+        <v>1.33974284829971E-05</v>
       </c>
       <c r="T3">
-        <v>5.509548747831319E-05</v>
+        <v>1.817533538288319E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H4">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I4">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J4">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N4">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O4">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P4">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q4">
-        <v>0.3179144489138889</v>
+        <v>0.511803910786</v>
       </c>
       <c r="R4">
-        <v>2.861230040225</v>
+        <v>4.606235197074</v>
       </c>
       <c r="S4">
-        <v>0.0002191761547509301</v>
+        <v>0.0001191359154089534</v>
       </c>
       <c r="T4">
-        <v>0.0002730462617719499</v>
+        <v>0.0001616231966793174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H5">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I5">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J5">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N5">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O5">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P5">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q5">
-        <v>1.3166745860875</v>
+        <v>3.314470899075</v>
       </c>
       <c r="R5">
-        <v>7.900047516524999</v>
+        <v>19.88682539445</v>
       </c>
       <c r="S5">
-        <v>0.0009077400345370814</v>
+        <v>0.0007715308858254199</v>
       </c>
       <c r="T5">
-        <v>0.0007538989916512623</v>
+        <v>0.0006977872719343904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H6">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I6">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J6">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N6">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O6">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P6">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q6">
-        <v>0.3897524728388889</v>
+        <v>0.1801536667993333</v>
       </c>
       <c r="R6">
-        <v>3.50777225555</v>
+        <v>1.621383001194</v>
       </c>
       <c r="S6">
-        <v>0.0002687026292555588</v>
+        <v>4.19355373339309E-05</v>
       </c>
       <c r="T6">
-        <v>0.000334745577272763</v>
+        <v>5.689095160858104E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J7">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N7">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O7">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P7">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q7">
-        <v>19.99966017410711</v>
+        <v>23.28721902078845</v>
       </c>
       <c r="R7">
-        <v>179.996941566964</v>
+        <v>209.584971187096</v>
       </c>
       <c r="S7">
-        <v>0.01378813900488501</v>
+        <v>0.005420716991219819</v>
       </c>
       <c r="T7">
-        <v>0.0171770501966975</v>
+        <v>0.007353900000746508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J8">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.586944</v>
       </c>
       <c r="O8">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P8">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q8">
         <v>6.895645538055111</v>
@@ -948,10 +948,10 @@
         <v>62.060809842496</v>
       </c>
       <c r="S8">
-        <v>0.004753986736745327</v>
+        <v>0.001605144130786764</v>
       </c>
       <c r="T8">
-        <v>0.00592244310726614</v>
+        <v>0.002177584523174817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J9">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N9">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O9">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P9">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q9">
-        <v>34.17394641278922</v>
+        <v>61.319158714261</v>
       </c>
       <c r="R9">
-        <v>307.565517715103</v>
+        <v>551.8724284283491</v>
       </c>
       <c r="S9">
-        <v>0.02356015649181228</v>
+        <v>0.01427365823428603</v>
       </c>
       <c r="T9">
-        <v>0.02935087835700878</v>
+        <v>0.01936405377181494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J10">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N10">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O10">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P10">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q10">
-        <v>141.5348276926645</v>
+        <v>397.1063191018875</v>
       </c>
       <c r="R10">
-        <v>849.208966155987</v>
+        <v>2382.637914611325</v>
       </c>
       <c r="S10">
-        <v>0.09757675186828675</v>
+        <v>0.09243701316824214</v>
       </c>
       <c r="T10">
-        <v>0.08103973829866566</v>
+        <v>0.08360180056229947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J11">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N11">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O11">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P11">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q11">
-        <v>41.89611439980823</v>
+        <v>21.58418694077433</v>
       </c>
       <c r="R11">
-        <v>377.065029598274</v>
+        <v>194.257682466969</v>
       </c>
       <c r="S11">
-        <v>0.02888396323138578</v>
+        <v>0.005024291169635718</v>
       </c>
       <c r="T11">
-        <v>0.03598319440566274</v>
+        <v>0.006816097371617326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H12">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I12">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J12">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N12">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O12">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P12">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q12">
-        <v>51.05818706617377</v>
+        <v>70.07664489833689</v>
       </c>
       <c r="R12">
-        <v>459.5236835955639</v>
+        <v>630.6898040850321</v>
       </c>
       <c r="S12">
-        <v>0.03520046713179995</v>
+        <v>0.01631219508645439</v>
       </c>
       <c r="T12">
-        <v>0.04385219721500558</v>
+        <v>0.02212959127966944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H13">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I13">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J13">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.586944</v>
       </c>
       <c r="O13">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P13">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q13">
-        <v>17.60425711032178</v>
+        <v>20.75059728187022</v>
       </c>
       <c r="R13">
-        <v>158.438313992896</v>
+        <v>186.755375536832</v>
       </c>
       <c r="S13">
-        <v>0.01213670342404649</v>
+        <v>0.004830251098827227</v>
       </c>
       <c r="T13">
-        <v>0.01511971730655</v>
+        <v>0.006552857051347015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H14">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I14">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J14">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N14">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O14">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P14">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q14">
-        <v>87.24446983317254</v>
+        <v>184.523575221587</v>
       </c>
       <c r="R14">
-        <v>785.2002284985529</v>
+        <v>1660.712176994283</v>
       </c>
       <c r="S14">
-        <v>0.06014796586517428</v>
+        <v>0.04295274925663575</v>
       </c>
       <c r="T14">
-        <v>0.07493140506701489</v>
+        <v>0.05827093045109486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H15">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I15">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J15">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N15">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O15">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P15">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q15">
-        <v>361.3317249293395</v>
+        <v>1194.985046765212</v>
       </c>
       <c r="R15">
-        <v>2167.990349576037</v>
+        <v>7169.910280591275</v>
       </c>
       <c r="S15">
-        <v>0.2491088351916476</v>
+        <v>0.2781644189231522</v>
       </c>
       <c r="T15">
-        <v>0.2068906212318564</v>
+        <v>0.2515772143352945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H16">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I16">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J16">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N16">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O16">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P16">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q16">
-        <v>106.9587996870416</v>
+        <v>64.95182624931367</v>
       </c>
       <c r="R16">
-        <v>962.6291971833739</v>
+        <v>584.566436243823</v>
       </c>
       <c r="S16">
-        <v>0.07373939282177935</v>
+        <v>0.01511925781460234</v>
       </c>
       <c r="T16">
-        <v>0.0918633944381432</v>
+        <v>0.02051121839309874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H17">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I17">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J17">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N17">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O17">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P17">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q17">
-        <v>1.91191344072</v>
+        <v>2.724564289732001</v>
       </c>
       <c r="R17">
-        <v>11.47148064432</v>
+        <v>16.347385738392</v>
       </c>
       <c r="S17">
-        <v>0.001318108810672942</v>
+        <v>0.0006342144987701914</v>
       </c>
       <c r="T17">
-        <v>0.001094719705471338</v>
+        <v>0.0005735957082840969</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H18">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I18">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J18">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.586944</v>
       </c>
       <c r="O18">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P18">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q18">
-        <v>0.65920507008</v>
+        <v>0.8067785840320001</v>
       </c>
       <c r="R18">
-        <v>3.95523042048</v>
+        <v>4.840671504192001</v>
       </c>
       <c r="S18">
-        <v>0.0004544682789538343</v>
+        <v>0.0001877990830382313</v>
       </c>
       <c r="T18">
-        <v>0.0003774463659251377</v>
+        <v>0.0001698490782839246</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H19">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I19">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J19">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N19">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O19">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P19">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q19">
-        <v>3.26693688294</v>
+        <v>7.1742353588955</v>
       </c>
       <c r="R19">
-        <v>19.60162129763999</v>
+        <v>43.045412153373</v>
       </c>
       <c r="S19">
-        <v>0.002252287262384622</v>
+        <v>0.001669993290064317</v>
       </c>
       <c r="T19">
-        <v>0.001870576411105051</v>
+        <v>0.001510373833934106</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H20">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I20">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J20">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N20">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O20">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P20">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q20">
-        <v>13.53034686789</v>
+        <v>46.46075150863125</v>
       </c>
       <c r="R20">
-        <v>54.12138747155999</v>
+        <v>185.843006034525</v>
       </c>
       <c r="S20">
-        <v>0.009328073665987013</v>
+        <v>0.01081497043089829</v>
       </c>
       <c r="T20">
-        <v>0.005164786585932332</v>
+        <v>0.006520843906293276</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H21">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I21">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J21">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N21">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O21">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P21">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q21">
-        <v>4.00515526452</v>
+        <v>2.5253124861855</v>
       </c>
       <c r="R21">
-        <v>24.03093158712</v>
+        <v>15.151874917113</v>
       </c>
       <c r="S21">
-        <v>0.00276122879301944</v>
+        <v>0.0005878333642924541</v>
       </c>
       <c r="T21">
-        <v>0.002293264066333025</v>
+        <v>0.0005316477242292298</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H22">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I22">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J22">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N22">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O22">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P22">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q22">
-        <v>45.49217201652978</v>
+        <v>99.80222814380711</v>
       </c>
       <c r="R22">
-        <v>409.429548148768</v>
+        <v>898.2200532942639</v>
       </c>
       <c r="S22">
-        <v>0.03136315247046723</v>
+        <v>0.0232316118716358</v>
       </c>
       <c r="T22">
-        <v>0.03907172999351306</v>
+        <v>0.03151667036609496</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H23">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I23">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J23">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.586944</v>
       </c>
       <c r="O23">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P23">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q23">
-        <v>15.68516116030578</v>
+        <v>29.55272540587377</v>
       </c>
       <c r="R23">
-        <v>141.166450442752</v>
+        <v>265.974528652864</v>
       </c>
       <c r="S23">
-        <v>0.01081364285740795</v>
+        <v>0.006879179544859612</v>
       </c>
       <c r="T23">
-        <v>0.01347146892739096</v>
+        <v>0.009332492093208231</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H24">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I24">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J24">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N24">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O24">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P24">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q24">
-        <v>77.73367323045956</v>
+        <v>262.796028247249</v>
       </c>
       <c r="R24">
-        <v>699.603059074136</v>
+        <v>2365.164254225241</v>
       </c>
       <c r="S24">
-        <v>0.05359104517433313</v>
+        <v>0.0611727357514549</v>
       </c>
       <c r="T24">
-        <v>0.06676289474068008</v>
+        <v>0.0829886862230487</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H25">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I25">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J25">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N25">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O25">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P25">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q25">
-        <v>321.941806594324</v>
+        <v>1701.881852915737</v>
       </c>
       <c r="R25">
-        <v>1931.650839565944</v>
+        <v>10211.29111749442</v>
       </c>
       <c r="S25">
-        <v>0.2219526903038753</v>
+        <v>0.3961580757630825</v>
       </c>
       <c r="T25">
-        <v>0.1843368178640589</v>
+        <v>0.3582929316507618</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H26">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I26">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J26">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N26">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O26">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P26">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q26">
-        <v>95.29888140638758</v>
+        <v>92.50352940120231</v>
       </c>
       <c r="R26">
-        <v>857.6899326574882</v>
+        <v>832.5317646108209</v>
       </c>
       <c r="S26">
-        <v>0.06570082753418519</v>
+        <v>0.02153264643258902</v>
       </c>
       <c r="T26">
-        <v>0.0818490742020682</v>
+        <v>0.02921180516768827</v>
       </c>
     </row>
   </sheetData>
